--- a/周常日常记录表.xlsx
+++ b/周常日常记录表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my\myTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F9AF90-8F7F-4FA1-BAA3-59FE0EB6F63F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23835" windowHeight="12465"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>日常饮食</t>
   </si>
@@ -56,9 +57,6 @@
     <t>尤克里里</t>
   </si>
   <si>
-    <t>英语</t>
-  </si>
-  <si>
     <t>洁面</t>
   </si>
   <si>
@@ -86,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>身体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,19 +96,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>芦荟</t>
+    <t>上药</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上药</t>
+    <t>英语/单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清洁头皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体健康</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +131,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -304,7 +318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -341,22 +355,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,30 +659,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="5.375" customWidth="1"/>
-    <col min="5" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="8.765625" customWidth="1"/>
+    <col min="2" max="2" width="27.23046875" customWidth="1"/>
+    <col min="3" max="3" width="6.3828125" customWidth="1"/>
+    <col min="4" max="4" width="5.3828125" customWidth="1"/>
+    <col min="5" max="6" width="4.765625" customWidth="1"/>
+    <col min="7" max="7" width="11.15234375" customWidth="1"/>
+    <col min="8" max="8" width="11.3828125" customWidth="1"/>
+    <col min="9" max="9" width="10.3046875" customWidth="1"/>
+    <col min="10" max="10" width="8.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -669,308 +696,311 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
+      <c r="G1" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
       <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
+    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
+    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
       <c r="I4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="3" t="s">
-        <v>11</v>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+    <row r="6" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="3" t="s">
-        <v>12</v>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
+    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
-        <v>13</v>
+    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="3" t="s">
-        <v>23</v>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
-        <v>14</v>
+    <row r="11" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
+    <row r="12" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="11"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
-        <v>15</v>
+    <row r="14" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="7"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
+    <row r="15" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="7"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
+    <row r="16" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="7"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13" t="s">
-        <v>16</v>
+    <row r="17" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="7"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
+    <row r="18" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="7"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
+    <row r="19" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
       <c r="I19" s="7"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="13" t="s">
-        <v>17</v>
+    <row r="20" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
       <c r="I21" s="7"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
+    <row r="22" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
       <c r="I22" s="8"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="25" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="14" t="s">
+    <row r="25" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:10" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="14"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="10" t="s">
         <v>1</v>
       </c>
@@ -983,347 +1013,337 @@
       <c r="F26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="10" t="s">
-        <v>19</v>
+      <c r="G26" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="12"/>
-    </row>
-    <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="13" t="s">
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
       <c r="I27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
       <c r="I28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="3" t="s">
-        <v>11</v>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="3" t="s">
-        <v>12</v>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="16"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
       <c r="I32" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="13" t="s">
-        <v>13</v>
+    <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
       <c r="I33" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="13"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
       <c r="I34" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="16"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="3" t="s">
-        <v>23</v>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="13" t="s">
-        <v>14</v>
+    <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
       <c r="I36" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="13"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="3"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="16"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
       <c r="I38" s="11"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="13" t="s">
-        <v>15</v>
+    <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>14</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
       <c r="I39" s="7"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="13"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
       <c r="I40" s="7"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="13"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
       <c r="I41" s="7"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="13" t="s">
-        <v>16</v>
+    <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
       <c r="I42" s="7"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="13"/>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
       <c r="I43" s="7"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="13"/>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
       <c r="I44" s="7"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="13" t="s">
-        <v>17</v>
+    <row r="45" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
       <c r="I45" s="7"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="13"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="17"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
       <c r="I46" s="7"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="13"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
       <c r="I47" s="8"/>
       <c r="J47" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A41"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A26:B26"/>
@@ -1340,39 +1360,51 @@
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="H14:H16"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.31388888888888899" right="0.31388888888888899" top="0.39305555555555599" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/周常日常记录表.xlsx
+++ b/周常日常记录表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my\myTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\myTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F9AF90-8F7F-4FA1-BAA3-59FE0EB6F63F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="18720" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -312,13 +311,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,11 +374,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,26 +410,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,31 +705,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+      <selection sqref="A1:J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.765625" customWidth="1"/>
-    <col min="2" max="2" width="27.23046875" customWidth="1"/>
-    <col min="3" max="3" width="6.3828125" customWidth="1"/>
-    <col min="4" max="4" width="5.3828125" customWidth="1"/>
-    <col min="5" max="6" width="4.765625" customWidth="1"/>
-    <col min="7" max="7" width="11.15234375" customWidth="1"/>
-    <col min="8" max="8" width="11.3828125" customWidth="1"/>
-    <col min="9" max="9" width="10.3046875" customWidth="1"/>
-    <col min="10" max="10" width="8.61328125" customWidth="1"/>
+    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="6" width="4.75" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -696,7 +742,7 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -707,15 +753,15 @@
       </c>
       <c r="J1" s="16"/>
     </row>
-    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="3" t="s">
@@ -723,13 +769,13 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="3" t="s">
@@ -737,13 +783,13 @@
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="16"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="3" t="s">
@@ -751,43 +797,43 @@
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="12" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="17"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="16"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="3" t="s">
@@ -795,15 +841,15 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="3" t="s">
@@ -811,13 +857,13 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="17"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="3" t="s">
@@ -825,29 +871,29 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="16"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="20" t="s">
+      <c r="I10" s="14" t="s">
         <v>24</v>
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="3" t="s">
@@ -855,13 +901,13 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="3" t="s">
@@ -869,460 +915,514 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="16"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="11"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="7"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="7"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="7"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="7"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="17"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="7"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="17"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="7"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="17"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="7"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="17"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="8"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="25" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:10" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+    <row r="25" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="28"/>
+      <c r="C26" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+      <c r="J26" s="26"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
       <c r="I27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A28" s="23"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
       <c r="I28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="24"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
       <c r="I29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="18" t="s">
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="12" t="s">
         <v>22</v>
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="23"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="19" t="s">
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="24"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
       <c r="I32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+    <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
       <c r="I33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="23"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="3" t="s">
         <v>19</v>
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35" s="24"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="20" t="s">
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="14" t="s">
         <v>24</v>
       </c>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+    <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
       <c r="I36" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="23"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
       <c r="I37" s="3" t="s">
         <v>21</v>
       </c>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="16"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="24"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="11"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="10"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="22" t="s">
         <v>14</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
       <c r="I39" s="7"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="23"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
       <c r="I40" s="7"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="24"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
       <c r="I41" s="7"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
       <c r="I42" s="7"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" s="23"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
       <c r="I43" s="7"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="24"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
       <c r="I44" s="7"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
+    <row r="45" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="22" t="s">
         <v>16</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
       <c r="I45" s="7"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46" s="23"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
       <c r="I46" s="7"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47" s="24"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
       <c r="I47" s="8"/>
       <c r="J47" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A41"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A45:A47"/>
     <mergeCell ref="G2:G4"/>
@@ -1339,69 +1439,15 @@
     <mergeCell ref="G39:G41"/>
     <mergeCell ref="G42:G44"/>
     <mergeCell ref="G45:G47"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H33:H35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.31388888888888899" right="0.31388888888888899" top="0.39305555555555599" bottom="0" header="0" footer="0"/>

--- a/周常日常记录表.xlsx
+++ b/周常日常记录表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\myTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my\myTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5765F9-AF90-4F48-A11F-D062B80E727C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="18720" windowHeight="11955"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,22 +44,10 @@
 </t>
   </si>
   <si>
-    <t>杂书画</t>
-  </si>
-  <si>
-    <t>博文</t>
-  </si>
-  <si>
     <t xml:space="preserve">周二
 </t>
   </si>
   <si>
-    <t>尤克里里</t>
-  </si>
-  <si>
-    <t>洁面</t>
-  </si>
-  <si>
     <t xml:space="preserve">周三
 </t>
   </si>
@@ -87,38 +76,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>5商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语/单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清洁头皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营养头发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>洗发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5商</t>
+    <t>写文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上药</t>
+    <t>读书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英语/单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑英语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>清洁头皮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身体健康</t>
+    <t>音乐、画画</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,24 +397,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -418,18 +435,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,31 +710,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="6.375" customWidth="1"/>
-    <col min="4" max="4" width="5.375" customWidth="1"/>
-    <col min="5" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="11.125" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="9" max="9" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="8.765625" customWidth="1"/>
+    <col min="2" max="2" width="27.23046875" customWidth="1"/>
+    <col min="3" max="3" width="6.3828125" customWidth="1"/>
+    <col min="4" max="4" width="5.3828125" customWidth="1"/>
+    <col min="5" max="6" width="4.765625" customWidth="1"/>
+    <col min="7" max="7" width="11.15234375" customWidth="1"/>
+    <col min="8" max="8" width="11.3828125" customWidth="1"/>
+    <col min="9" max="9" width="10.23046875" customWidth="1"/>
+    <col min="10" max="10" width="8.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -743,310 +748,309 @@
         <v>4</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="16"/>
-    </row>
-    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
+    <row r="3" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
+    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="3" t="s">
-        <v>10</v>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
-        <v>9</v>
+    <row r="5" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+    <row r="6" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
+    <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17" t="s">
-        <v>12</v>
+    <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="3" t="s">
-        <v>17</v>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
+    <row r="9" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="3" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="14" t="s">
         <v>19</v>
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
+    <row r="10" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
-        <v>13</v>
+    <row r="11" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
+    <row r="12" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
+    <row r="13" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="10"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
-        <v>14</v>
+    <row r="14" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
       <c r="I14" s="7"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
+    <row r="15" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="7"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17"/>
+    <row r="16" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="7"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
-        <v>15</v>
+    <row r="17" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>11</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="7"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17"/>
+    <row r="18" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="7"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17"/>
+    <row r="19" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="7"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="17" t="s">
-        <v>16</v>
+    <row r="20" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="7"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="17"/>
+    <row r="21" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="25"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
       <c r="I21" s="7"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="17"/>
+    <row r="22" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
       <c r="I22" s="8"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="25" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="27" t="s">
+    <row r="25" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:10" ht="35.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="28"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="11" t="s">
         <v>1</v>
       </c>
@@ -1060,348 +1064,336 @@
         <v>4</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I26" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="J26" s="26"/>
-    </row>
-    <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="22" t="s">
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="3" t="s">
-        <v>7</v>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="23"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="27"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="3" t="s">
-        <v>8</v>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A29" s="24"/>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="28"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="22" t="s">
-        <v>9</v>
+    <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26" t="s">
+        <v>7</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
       <c r="I30" s="12" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A31" s="23"/>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="27"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A32" s="24"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="28"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="22" t="s">
-        <v>12</v>
+    <row r="33" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="26" t="s">
+        <v>8</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="3" t="s">
-        <v>17</v>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A34" s="23"/>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="27"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="3" t="s">
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="14" t="s">
         <v>19</v>
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A35" s="24"/>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="28"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
       <c r="I35" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="22" t="s">
-        <v>13</v>
+    <row r="36" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="26" t="s">
+        <v>9</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
       <c r="I36" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A37" s="23"/>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="27"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
       <c r="I37" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A38" s="24"/>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="28"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
       <c r="I38" s="10"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="22" t="s">
-        <v>14</v>
+    <row r="39" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="26" t="s">
+        <v>10</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
       <c r="I39" s="7"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A40" s="23"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="27"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
       <c r="I40" s="7"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A41" s="24"/>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="28"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
       <c r="I41" s="7"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="22" t="s">
-        <v>15</v>
+    <row r="42" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
       <c r="I42" s="7"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A43" s="23"/>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="27"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
       <c r="I43" s="7"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A44" s="24"/>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="28"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
       <c r="I44" s="7"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="22" t="s">
-        <v>16</v>
+    <row r="45" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="26" t="s">
+        <v>12</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
       <c r="I45" s="7"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A46" s="23"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="27"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
       <c r="I46" s="7"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A47" s="24"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="28"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
       <c r="I47" s="8"/>
       <c r="J47" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A41"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="A26:B26"/>
@@ -1418,36 +1410,48 @@
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="H14:H16"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="F45:F47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.31388888888888899" right="0.31388888888888899" top="0.39305555555555599" bottom="0" header="0" footer="0"/>
